--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -429,7 +429,7 @@
     <t xml:space="preserve">ella tiene un resfriado</t>
   </si>
   <si>
-    <t xml:space="preserve">she doesn’t have cold</t>
+    <t xml:space="preserve">she doesn't have cold</t>
   </si>
   <si>
     <t xml:space="preserve">ella no tiene frio</t>
@@ -441,7 +441,7 @@
     <t xml:space="preserve">ella tiene un resfriado?</t>
   </si>
   <si>
-    <t xml:space="preserve">she hasn’t got a cold</t>
+    <t xml:space="preserve">she hasn't got a cold</t>
   </si>
   <si>
     <t xml:space="preserve">ella no tiene un resfriado</t>
@@ -981,6 +981,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1072,10 +1073,10 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,7 +1221,7 @@
       <selection pane="topLeft" activeCell="R39" activeCellId="0" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1292,7 +1293,7 @@
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
@@ -1368,7 +1369,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
@@ -1516,9 +1517,9 @@
       <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
   </cols>
   <sheetData>
@@ -1620,11 +1621,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
@@ -1764,7 +1765,7 @@
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
@@ -1824,9 +1825,9 @@
       <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
   </cols>
   <sheetData>
@@ -1972,7 +1973,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -2120,9 +2121,9 @@
       <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
   </cols>
   <sheetData>
@@ -2228,10 +2229,10 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,11 +2357,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -2428,7 +2429,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -2512,7 +2513,7 @@
       <selection pane="topLeft" activeCell="P34" activeCellId="0" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -2660,7 +2661,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,11 +18,6 @@
     <sheet name="Have and Have got" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Moths" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Ordinal Number 2" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Present continous 2" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Present continous" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Ordinal Number 1" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Like, dislike and opinions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Present Simple" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="213">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -673,300 +668,6 @@
   </si>
   <si>
     <t xml:space="preserve">treinta y uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are we talking a shower?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Estamos hablando de una ducha?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, we aren’t taking a shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no nos vamos a duchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we are driving a car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estamos conduciendo un coche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are the dancing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">son los que bailan?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, they aren’t dancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no están bailando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they are singing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellos están cantando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am studying at platzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estoy estudiando en platzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am cooking lunch right now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estoy cocinando el almuerzo ahora mismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am I speaking french?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿estoy hablando francés?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, you aren’t speaking french</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no estás hablando francés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you are speaking english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estás hablando inglés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">are you paying attention?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Estas prestando atención?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, you aren’t paying attention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no estás prestando atención</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you are playing video games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estas jugando videojuegos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is he watching tv?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿está viendo la televisión?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, he isn’t watching tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, el no esta viendo tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he is dancing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">él está bailando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is she resting at home?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esta descansando en casa?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is the cat sleeping?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el gato esta durmiendo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, it isn’t sleeping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no está durmiendo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is jumping on the bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esta saltando en la cama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sixteenth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimosexto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seventeenth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimoséptimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eighteenth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimoctavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nineteenth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimonoveno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twentieth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigésimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veintiuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigesimo segundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty third</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigésimo tercero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty fourth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veinticuatro AVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twenty fifth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vigésimo quinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he likes chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le gusta el chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love video games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me encantan los juegos de video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we enjoy cooking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disfrutamos cocinar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we don’t like dacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no nos gusta bailar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she hates fast food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ella odia la comida rapida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they dislike jazz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no les gusta el jazz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think you are right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creo que tienes razón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I consider we need it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Considero que lo necesitamos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I believe that’s not true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creo que eso no es verdad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do you like sports?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Te gustan los deportes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, I don’t. I actully hate sport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no, no lo hago. en realidad odio el deporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oh, really? Why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Ah, de verdad? ¿Por qué?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think that sports are boring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creo que los deportes son aburridos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes, I love them, I consider that sports are entertainig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si, los amo, considero que los deportes son entretenidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soy un estudiante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I study at platzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yo estudio en platzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I brush my teeth everyday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Me cepillo los dientes todos los dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she has two sisters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ella tiene dos hermanas</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +774,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -1217,11 +918,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R39" activeCellId="0" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1269,538 +970,6 @@
       </c>
       <c r="B6" s="0" t="s">
         <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.6"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>274</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.09"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +994,7 @@
       <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1973,7 +1142,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -2121,7 +1290,7 @@
       <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -2229,9 +1398,9 @@
       <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
   </cols>
   <sheetData>
@@ -2357,11 +1526,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -2429,7 +1598,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -2513,7 +1682,7 @@
       <selection pane="topLeft" activeCell="P34" activeCellId="0" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -2661,7 +1830,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -340,43 +340,43 @@
     <t xml:space="preserve">puedo llevar a mi novia conmigo?</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s four o’clok</t>
+    <t xml:space="preserve">it's four o'clok</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s five past four</t>
+    <t xml:space="preserve">it's five past four</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro y cinco</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s ten past four</t>
+    <t xml:space="preserve">it's ten past four</t>
   </si>
   <si>
     <t xml:space="preserve">Son las cuatro y diez</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s quarter past four</t>
+    <t xml:space="preserve">it's quarter past four</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro y cuarto</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s twenty past four</t>
+    <t xml:space="preserve">it's twenty past four</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro y veinte</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s twenty five past four</t>
+    <t xml:space="preserve">it's twenty five past four</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro y veinticinco</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s half past four</t>
+    <t xml:space="preserve">it's half past four</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro y media</t>
@@ -388,31 +388,31 @@
     <t xml:space="preserve">¿Qué hora es?</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s twenty five to five</t>
+    <t xml:space="preserve">it's twenty five to five</t>
   </si>
   <si>
     <t xml:space="preserve">son veinticinco para las cinco</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s twenty fo five</t>
+    <t xml:space="preserve">it's twenty fo five</t>
   </si>
   <si>
     <t xml:space="preserve">son las veinticinco</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s quarter to five</t>
+    <t xml:space="preserve">it's quarter to five</t>
   </si>
   <si>
     <t xml:space="preserve">son las cinco menos cuarto</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s ten to five</t>
+    <t xml:space="preserve">it's ten to five</t>
   </si>
   <si>
     <t xml:space="preserve">son las cinco menos diez</t>
   </si>
   <si>
-    <t xml:space="preserve">it’s five to five</t>
+    <t xml:space="preserve">it's five to five</t>
   </si>
   <si>
     <t xml:space="preserve">son las cinco menos cinco</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">has she got a cold?</t>
   </si>
   <si>
-    <t xml:space="preserve">I’d like to see the menu please</t>
+    <t xml:space="preserve">I'd like to see the menu please</t>
   </si>
   <si>
     <t xml:space="preserve">me gustaria ver el menu por favor</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">quiero un sandwich de pollo</t>
   </si>
   <si>
-    <t xml:space="preserve">I’d like a large soda too, please</t>
+    <t xml:space="preserve">I'd like a large soda too, please</t>
   </si>
   <si>
     <t xml:space="preserve">Yo también quiero un refresco grande, por favor.</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">me gustaria ir a paris</t>
   </si>
   <si>
-    <t xml:space="preserve">I’d like to have a dog</t>
+    <t xml:space="preserve">I'd like to have a dog</t>
   </si>
   <si>
     <t xml:space="preserve">me gustaria tener un perro</t>
@@ -493,7 +493,7 @@
     <t xml:space="preserve">tengo un carro</t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve got a car</t>
+    <t xml:space="preserve">I've got a car</t>
   </si>
   <si>
     <t xml:space="preserve">Tengo un auto</t>
@@ -505,7 +505,7 @@
     <t xml:space="preserve">tengo dos hermanos</t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve got two brothers</t>
+    <t xml:space="preserve">I've got two brothers</t>
   </si>
   <si>
     <t xml:space="preserve">Tengo dos hermanos</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">ella tiene dolor de cabeza</t>
   </si>
   <si>
-    <t xml:space="preserve">she’s got a headache</t>
+    <t xml:space="preserve">she's got a headache</t>
   </si>
   <si>
     <t xml:space="preserve">he has blue eyes</t>
@@ -526,7 +526,7 @@
     <t xml:space="preserve">él tiene los ojos azules</t>
   </si>
   <si>
-    <t xml:space="preserve">he’s got blue eyes</t>
+    <t xml:space="preserve">he's got blue eyes</t>
   </si>
   <si>
     <t xml:space="preserve">el tiene ojos azules</t>
@@ -541,13 +541,13 @@
     <t xml:space="preserve">you have got a big house</t>
   </si>
   <si>
-    <t xml:space="preserve">you don’t have a big house</t>
+    <t xml:space="preserve">you don't have a big house</t>
   </si>
   <si>
     <t xml:space="preserve">no tienes una casa grande</t>
   </si>
   <si>
-    <t xml:space="preserve">you haven’t got a big house</t>
+    <t xml:space="preserve">you haven't got a big house</t>
   </si>
   <si>
     <t xml:space="preserve">do you have a big house?</t>
@@ -774,7 +774,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -919,10 +919,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R39" activeCellId="0" sqref="R39"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -991,10 +991,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1139,10 +1139,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1287,10 +1287,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1395,10 +1395,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1527,10 +1527,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1679,10 +1679,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P34" activeCellId="0" sqref="P34"/>
+      <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1830,7 +1830,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -340,7 +340,7 @@
     <t xml:space="preserve">puedo llevar a mi novia conmigo?</t>
   </si>
   <si>
-    <t xml:space="preserve">it's four o'clok</t>
+    <t xml:space="preserve">it's four o'clock</t>
   </si>
   <si>
     <t xml:space="preserve">son las cuatro</t>
@@ -774,7 +774,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -918,11 +918,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -994,7 +994,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1142,7 +1142,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1290,7 +1290,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1394,11 +1394,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1530,7 +1530,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1598,7 +1598,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1682,7 +1682,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1830,7 +1830,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">me gustaria ver el menu por favor</t>
   </si>
   <si>
-    <t xml:space="preserve">of couse, here you go</t>
+    <t xml:space="preserve">of course, here you go</t>
   </si>
   <si>
     <t xml:space="preserve">por supuesto, aquí tienes</t>
@@ -774,7 +774,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -922,7 +922,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -994,7 +994,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1142,7 +1142,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1290,7 +1290,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1394,11 +1394,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1530,7 +1530,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1594,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1682,7 +1682,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1830,7 +1830,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="212">
   <si>
     <t xml:space="preserve">first</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">bajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el sol está sobre nosotros en el cielo</t>
   </si>
   <si>
     <t xml:space="preserve">in</t>
@@ -774,7 +771,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -922,54 +919,54 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +991,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1136,13 +1133,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1166,106 +1163,82 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1263,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1298,82 +1271,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1371,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1406,106 +1379,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1503,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1538,42 +1511,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1594,11 +1567,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1606,58 +1579,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1655,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1690,122 +1663,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1830,102 +1803,102 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">son veinticinco para las cinco</t>
   </si>
   <si>
-    <t xml:space="preserve">it's twenty fo five</t>
+    <t xml:space="preserve">it's twenty to five</t>
   </si>
   <si>
     <t xml:space="preserve">son las veinticinco</t>
@@ -771,7 +771,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -919,7 +919,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -991,7 +991,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1135,11 +1135,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1263,7 +1263,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1367,11 +1367,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1503,7 +1503,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1571,7 +1571,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1655,7 +1655,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1803,7 +1803,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
+++ b/src/main/resources/excel/Basico A1 Fechas Horas Expresiones Simples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ordinal Number" sheetId="1" state="visible" r:id="rId2"/>
@@ -235,7 +235,7 @@
     <t xml:space="preserve">en</t>
   </si>
   <si>
-    <t xml:space="preserve">I live in rio de janerio</t>
+    <t xml:space="preserve">I live in rio de janeiro</t>
   </si>
   <si>
     <t xml:space="preserve">yo vivo en rio de janerio</t>
@@ -771,7 +771,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.93"/>
@@ -919,7 +919,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -991,7 +991,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.65"/>
@@ -1135,11 +1135,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.13"/>
@@ -1263,7 +1263,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -1367,11 +1367,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.14"/>
@@ -1503,7 +1503,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.93"/>
@@ -1571,7 +1571,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.64"/>
@@ -1655,7 +1655,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.98"/>
@@ -1803,7 +1803,7 @@
       <selection pane="topLeft" activeCell="Q38" activeCellId="0" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
